--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>MBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ML-CCMBO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>算法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,14 +117,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正在试验</t>
-  </si>
-  <si>
     <t>CCMBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正在试验</t>
+    <t>ML-CCMBO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛不行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛不行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,18 +545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO28"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="topRight" activeCell="AO28" sqref="AO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -579,13 +584,13 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
@@ -597,7 +602,7 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
@@ -609,7 +614,7 @@
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
@@ -617,7 +622,7 @@
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -713,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>1</v>
@@ -768,6 +773,18 @@
       <c r="U3" s="4">
         <v>380</v>
       </c>
+      <c r="V3" s="4">
+        <v>87</v>
+      </c>
+      <c r="W3" s="4">
+        <v>192</v>
+      </c>
+      <c r="X3" s="4">
+        <v>204</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>396</v>
+      </c>
       <c r="Z3" s="4">
         <v>85</v>
       </c>
@@ -795,14 +812,14 @@
       <c r="AH3" s="4">
         <v>85</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>26</v>
+      <c r="AI3" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>193</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>371</v>
       </c>
       <c r="AL3" s="4">
         <v>85</v>
@@ -811,7 +828,7 @@
         <v>185</v>
       </c>
       <c r="AN3" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO3" s="4">
         <v>374</v>
@@ -845,6 +862,18 @@
       <c r="U4" s="4">
         <v>378</v>
       </c>
+      <c r="V4" s="4">
+        <v>88</v>
+      </c>
+      <c r="W4" s="4">
+        <v>192</v>
+      </c>
+      <c r="X4" s="4">
+        <v>203</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>382</v>
+      </c>
       <c r="Z4" s="4">
         <v>85</v>
       </c>
@@ -872,6 +901,15 @@
       <c r="AH4" s="4">
         <v>85</v>
       </c>
+      <c r="AI4" s="4">
+        <v>188</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>192</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>376</v>
+      </c>
       <c r="AL4" s="4">
         <v>83</v>
       </c>
@@ -879,10 +917,10 @@
         <v>183</v>
       </c>
       <c r="AN4" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO4" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -913,6 +951,18 @@
       <c r="U5" s="4">
         <v>374</v>
       </c>
+      <c r="V5" s="4">
+        <v>91</v>
+      </c>
+      <c r="W5" s="4">
+        <v>187</v>
+      </c>
+      <c r="X5" s="4">
+        <v>196</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>391</v>
+      </c>
       <c r="Z5" s="4">
         <v>85</v>
       </c>
@@ -940,11 +990,20 @@
       <c r="AH5" s="4">
         <v>85</v>
       </c>
+      <c r="AI5" s="4">
+        <v>186</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>193</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>371</v>
+      </c>
       <c r="AL5" s="4">
         <v>85</v>
       </c>
       <c r="AM5" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN5" s="4">
         <v>193</v>
@@ -981,6 +1040,18 @@
       <c r="U6" s="4">
         <v>383</v>
       </c>
+      <c r="V6" s="4">
+        <v>90</v>
+      </c>
+      <c r="W6" s="4">
+        <v>185</v>
+      </c>
+      <c r="X6" s="4">
+        <v>198</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>386</v>
+      </c>
       <c r="Z6" s="4">
         <v>85</v>
       </c>
@@ -1008,17 +1079,26 @@
       <c r="AH6" s="4">
         <v>85</v>
       </c>
+      <c r="AI6" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>193</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>376</v>
+      </c>
       <c r="AL6" s="4">
         <v>83</v>
       </c>
       <c r="AM6" s="4">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AN6" s="4">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO6" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1049,6 +1129,18 @@
       <c r="U7" s="4">
         <v>380</v>
       </c>
+      <c r="V7" s="4">
+        <v>87</v>
+      </c>
+      <c r="W7" s="4">
+        <v>188</v>
+      </c>
+      <c r="X7" s="4">
+        <v>202</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>380</v>
+      </c>
       <c r="Z7" s="4">
         <v>85</v>
       </c>
@@ -1076,6 +1168,15 @@
       <c r="AH7" s="4">
         <v>85</v>
       </c>
+      <c r="AI7" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>376</v>
+      </c>
       <c r="AL7" s="4">
         <v>85</v>
       </c>
@@ -1083,10 +1184,10 @@
         <v>183</v>
       </c>
       <c r="AN7" s="4">
-        <v>194</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>373</v>
+        <v>192</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1117,6 +1218,18 @@
       <c r="U8" s="4">
         <v>385</v>
       </c>
+      <c r="V8" s="4">
+        <v>86</v>
+      </c>
+      <c r="W8" s="4">
+        <v>186</v>
+      </c>
+      <c r="X8" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>380</v>
+      </c>
       <c r="Z8" s="4">
         <v>85</v>
       </c>
@@ -1144,17 +1257,26 @@
       <c r="AH8" s="4">
         <v>83</v>
       </c>
+      <c r="AI8" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>192</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>371</v>
+      </c>
       <c r="AL8" s="4">
         <v>85</v>
       </c>
       <c r="AM8" s="4">
-        <v>183</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>192</v>
       </c>
       <c r="AO8" s="4">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1185,6 +1307,18 @@
       <c r="U9" s="4">
         <v>381</v>
       </c>
+      <c r="V9" s="4">
+        <v>85</v>
+      </c>
+      <c r="W9" s="4">
+        <v>189</v>
+      </c>
+      <c r="X9" s="4">
+        <v>196</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>378</v>
+      </c>
       <c r="Z9" s="4">
         <v>85</v>
       </c>
@@ -1212,17 +1346,26 @@
       <c r="AH9" s="4">
         <v>85</v>
       </c>
+      <c r="AI9" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>195</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>376</v>
+      </c>
       <c r="AL9" s="4">
         <v>85</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM9" s="9">
         <v>183</v>
       </c>
       <c r="AN9" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO9" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1253,6 +1396,18 @@
       <c r="U10" s="4">
         <v>378</v>
       </c>
+      <c r="V10" s="4">
+        <v>89</v>
+      </c>
+      <c r="W10" s="4">
+        <v>184</v>
+      </c>
+      <c r="X10" s="4">
+        <v>201</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>386</v>
+      </c>
       <c r="Z10" s="4">
         <v>83</v>
       </c>
@@ -1280,14 +1435,23 @@
       <c r="AH10" s="4">
         <v>85</v>
       </c>
+      <c r="AI10" s="4">
+        <v>184</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>193</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>374</v>
+      </c>
       <c r="AL10" s="4">
         <v>85</v>
       </c>
       <c r="AM10" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN10" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO10" s="4">
         <v>372</v>
@@ -1321,6 +1485,18 @@
       <c r="U11" s="4">
         <v>378</v>
       </c>
+      <c r="V11" s="4">
+        <v>87</v>
+      </c>
+      <c r="W11" s="4">
+        <v>188</v>
+      </c>
+      <c r="X11" s="4">
+        <v>199</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>378</v>
+      </c>
       <c r="Z11" s="4">
         <v>83</v>
       </c>
@@ -1348,17 +1524,26 @@
       <c r="AH11" s="4">
         <v>83</v>
       </c>
+      <c r="AI11" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>371</v>
+      </c>
       <c r="AL11" s="4">
         <v>85</v>
       </c>
       <c r="AM11" s="4">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AN11" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO11" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1389,6 +1574,18 @@
       <c r="U12" s="4">
         <v>375</v>
       </c>
+      <c r="V12" s="4">
+        <v>86</v>
+      </c>
+      <c r="W12" s="4">
+        <v>190</v>
+      </c>
+      <c r="X12" s="4">
+        <v>196</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>378</v>
+      </c>
       <c r="Z12" s="4">
         <v>85</v>
       </c>
@@ -1416,6 +1613,15 @@
       <c r="AH12" s="4">
         <v>85</v>
       </c>
+      <c r="AI12" s="4">
+        <v>185</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>371</v>
+      </c>
       <c r="AL12" s="4">
         <v>83</v>
       </c>
@@ -1423,10 +1629,10 @@
         <v>185</v>
       </c>
       <c r="AN12" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO12" s="4">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1457,6 +1663,18 @@
       <c r="U13" s="4">
         <v>382</v>
       </c>
+      <c r="V13" s="4">
+        <v>89</v>
+      </c>
+      <c r="W13" s="4">
+        <v>186</v>
+      </c>
+      <c r="X13" s="4">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>382</v>
+      </c>
       <c r="Z13" s="4">
         <v>85</v>
       </c>
@@ -1484,17 +1702,26 @@
       <c r="AH13" s="4">
         <v>85</v>
       </c>
+      <c r="AI13" s="4">
+        <v>186</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>195</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>374</v>
+      </c>
       <c r="AL13" s="4">
         <v>85</v>
       </c>
       <c r="AM13" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AN13" s="4">
         <v>194</v>
       </c>
       <c r="AO13" s="4">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1525,6 +1752,18 @@
       <c r="U14" s="4">
         <v>382</v>
       </c>
+      <c r="V14" s="4">
+        <v>85</v>
+      </c>
+      <c r="W14" s="4">
+        <v>189</v>
+      </c>
+      <c r="X14" s="4">
+        <v>207</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>379</v>
+      </c>
       <c r="Z14" s="4">
         <v>83</v>
       </c>
@@ -1552,17 +1791,26 @@
       <c r="AH14" s="4">
         <v>85</v>
       </c>
+      <c r="AI14" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>374</v>
+      </c>
       <c r="AL14" s="4">
         <v>85</v>
       </c>
       <c r="AM14" s="4">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AN14" s="4">
-        <v>194</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>374</v>
+        <v>193</v>
+      </c>
+      <c r="AO14" s="9">
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1593,6 +1841,18 @@
       <c r="U15" s="4">
         <v>386</v>
       </c>
+      <c r="V15" s="4">
+        <v>85</v>
+      </c>
+      <c r="W15" s="4">
+        <v>187</v>
+      </c>
+      <c r="X15" s="4">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>383</v>
+      </c>
       <c r="Z15" s="4">
         <v>85</v>
       </c>
@@ -1620,6 +1880,15 @@
       <c r="AH15" s="4">
         <v>85</v>
       </c>
+      <c r="AI15" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>192</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>372</v>
+      </c>
       <c r="AL15" s="4">
         <v>85</v>
       </c>
@@ -1627,10 +1896,10 @@
         <v>183</v>
       </c>
       <c r="AN15" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO15" s="4">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1661,6 +1930,18 @@
       <c r="U16" s="4">
         <v>384</v>
       </c>
+      <c r="V16" s="4">
+        <v>85</v>
+      </c>
+      <c r="W16" s="4">
+        <v>191</v>
+      </c>
+      <c r="X16" s="4">
+        <v>195</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>376</v>
+      </c>
       <c r="Z16" s="4">
         <v>85</v>
       </c>
@@ -1688,14 +1969,23 @@
       <c r="AH16" s="4">
         <v>85</v>
       </c>
+      <c r="AI16" s="4">
+        <v>188</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>374</v>
+      </c>
       <c r="AL16" s="4">
         <v>83</v>
       </c>
       <c r="AM16" s="4">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AN16" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO16" s="4">
         <v>373</v>
@@ -1729,6 +2019,18 @@
       <c r="U17" s="4">
         <v>385</v>
       </c>
+      <c r="V17" s="4">
+        <v>85</v>
+      </c>
+      <c r="W17" s="4">
+        <v>194</v>
+      </c>
+      <c r="X17" s="4">
+        <v>201</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>389</v>
+      </c>
       <c r="Z17" s="4">
         <v>83</v>
       </c>
@@ -1756,14 +2058,23 @@
       <c r="AH17" s="4">
         <v>85</v>
       </c>
+      <c r="AI17" s="4">
+        <v>185</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>193</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>373</v>
+      </c>
       <c r="AL17" s="4">
         <v>85</v>
       </c>
       <c r="AM17" s="4">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN17" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AO17" s="4">
         <v>372</v>
@@ -1797,6 +2108,18 @@
       <c r="U18" s="4">
         <v>377</v>
       </c>
+      <c r="V18" s="4">
+        <v>85</v>
+      </c>
+      <c r="W18" s="4">
+        <v>188</v>
+      </c>
+      <c r="X18" s="4">
+        <v>197</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>387</v>
+      </c>
       <c r="Z18" s="4">
         <v>85</v>
       </c>
@@ -1824,17 +2147,26 @@
       <c r="AH18" s="4">
         <v>85</v>
       </c>
+      <c r="AI18" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>195</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>372</v>
+      </c>
       <c r="AL18" s="4">
         <v>85</v>
       </c>
       <c r="AM18" s="4">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AN18" s="4">
-        <v>194</v>
-      </c>
-      <c r="AO18" s="4">
-        <v>373</v>
+        <v>195</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1865,6 +2197,18 @@
       <c r="U19" s="4">
         <v>377</v>
       </c>
+      <c r="V19" s="4">
+        <v>85</v>
+      </c>
+      <c r="W19" s="4">
+        <v>191</v>
+      </c>
+      <c r="X19" s="4">
+        <v>203</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>379</v>
+      </c>
       <c r="Z19" s="4">
         <v>85</v>
       </c>
@@ -1892,11 +2236,20 @@
       <c r="AH19" s="4">
         <v>85</v>
       </c>
+      <c r="AI19" s="4">
+        <v>185</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>195</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>376</v>
+      </c>
       <c r="AL19" s="4">
         <v>85</v>
       </c>
       <c r="AM19" s="4">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AN19" s="4">
         <v>194</v>
@@ -1933,6 +2286,18 @@
       <c r="U20" s="4">
         <v>382</v>
       </c>
+      <c r="V20" s="4">
+        <v>85</v>
+      </c>
+      <c r="W20" s="4">
+        <v>185</v>
+      </c>
+      <c r="X20" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>376</v>
+      </c>
       <c r="Z20" s="4">
         <v>85</v>
       </c>
@@ -1960,14 +2325,23 @@
       <c r="AH20" s="4">
         <v>85</v>
       </c>
+      <c r="AI20" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>372</v>
+      </c>
       <c r="AL20" s="4">
         <v>83</v>
       </c>
       <c r="AM20" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN20" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO20" s="4">
         <v>372</v>
@@ -2001,6 +2375,18 @@
       <c r="U21" s="4">
         <v>384</v>
       </c>
+      <c r="V21" s="4">
+        <v>83</v>
+      </c>
+      <c r="W21" s="4">
+        <v>187</v>
+      </c>
+      <c r="X21" s="4">
+        <v>197</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>383</v>
+      </c>
       <c r="Z21" s="4">
         <v>85</v>
       </c>
@@ -2028,6 +2414,15 @@
       <c r="AH21" s="4">
         <v>85</v>
       </c>
+      <c r="AI21" s="4">
+        <v>183</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>194</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>376</v>
+      </c>
       <c r="AL21" s="4">
         <v>83</v>
       </c>
@@ -2035,10 +2430,10 @@
         <v>185</v>
       </c>
       <c r="AN21" s="4">
-        <v>193</v>
-      </c>
-      <c r="AO21" s="4">
-        <v>373</v>
+        <v>194</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2069,6 +2464,18 @@
       <c r="U22" s="4">
         <v>376</v>
       </c>
+      <c r="V22" s="4">
+        <v>85</v>
+      </c>
+      <c r="W22" s="4">
+        <v>192</v>
+      </c>
+      <c r="X22" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>383</v>
+      </c>
       <c r="Z22" s="4">
         <v>85</v>
       </c>
@@ -2096,22 +2503,31 @@
       <c r="AH22" s="4">
         <v>85</v>
       </c>
+      <c r="AI22" s="4">
+        <v>185</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>195</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>372</v>
+      </c>
       <c r="AL22" s="4">
         <v>83</v>
       </c>
       <c r="AM22" s="4">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN22" s="4">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO22" s="4">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <f>AVERAGE(B3:B22)</f>
@@ -2145,62 +2561,90 @@
         <f>AVERAGE(U3:U22)</f>
         <v>380.35</v>
       </c>
+      <c r="V23" s="6">
+        <f>AVERAGE(V3:V22)</f>
+        <v>86.4</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" ref="W23:Y23" si="0">AVERAGE(W3:W22)</f>
+        <v>188.55</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="0"/>
+        <v>199.55</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="0"/>
+        <v>382.6</v>
+      </c>
       <c r="Z23" s="6">
-        <f t="shared" ref="Z23:AH23" si="0">AVERAGE(Z3:Z22)</f>
+        <f t="shared" ref="Z23:AH23" si="1">AVERAGE(Z3:Z22)</f>
         <v>84.6</v>
       </c>
       <c r="AA23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.15</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194.8</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>185.15</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194.5</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375.5</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.8</v>
       </c>
+      <c r="AI23" s="6">
+        <f t="shared" ref="AI23:AO23" si="2">AVERAGE(AI3:AI22)</f>
+        <v>185.25</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="2"/>
+        <v>193.7</v>
+      </c>
+      <c r="AK23" s="6">
+        <f t="shared" si="2"/>
+        <v>373.4</v>
+      </c>
       <c r="AL23" s="3">
-        <f>AVERAGE(AL3:AL22)</f>
+        <f t="shared" si="2"/>
         <v>84.3</v>
       </c>
-      <c r="AM23" s="3">
-        <f>AVERAGE(AM3:AM22)</f>
-        <v>184.9</v>
+      <c r="AM23" s="6">
+        <f t="shared" si="2"/>
+        <v>184.3</v>
       </c>
       <c r="AN23" s="3">
-        <f>AVERAGE(AN3:AN22)</f>
-        <v>193.8</v>
+        <f t="shared" si="2"/>
+        <v>193.5</v>
       </c>
       <c r="AO23" s="6">
-        <f>AVERAGE(AO3:AO22)</f>
-        <v>373.2</v>
+        <f t="shared" si="2"/>
+        <v>373.15</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <f>STDEVP(B3:B22)</f>
@@ -2234,62 +2678,90 @@
         <f>STDEVP(U3:U22)</f>
         <v>3.4967842369811719</v>
       </c>
+      <c r="V24" s="6">
+        <f>STDEVP(V3:V22)</f>
+        <v>2.0099751242241779</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" ref="W24:Y24" si="3">STDEVP(W3:W22)</f>
+        <v>2.7106272336859596</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0736785778607358</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="3"/>
+        <v>5.1224993899462774</v>
+      </c>
       <c r="Z24" s="3">
-        <f t="shared" ref="Z24:AH24" si="1">STDEVP(Z3:Z22)</f>
+        <f t="shared" ref="Z24:AH24" si="4">STDEVP(Z3:Z22)</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="AA24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2863726730347356</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1661903789690602</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2863726730347356</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2449899597988732</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2693611435820435</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59999999999999987</v>
       </c>
+      <c r="AI24" s="6">
+        <f t="shared" ref="AI24:AM24" si="5">STDEVP(AI3:AI22)</f>
+        <v>1.7853571071357126</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0049875621120892</v>
+      </c>
+      <c r="AK24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9849433241279208</v>
+      </c>
       <c r="AL24" s="3">
-        <f>STDEVP(AL3:AL22)</f>
+        <f t="shared" si="5"/>
         <v>0.95393920141694566</v>
       </c>
-      <c r="AM24" s="3">
-        <f>STDEVP(AM3:AM22)</f>
-        <v>1.9467922333931789</v>
+      <c r="AM24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3453624047073709</v>
       </c>
       <c r="AN24" s="3">
-        <f>STDEVP(AN3:AN22)</f>
-        <v>0.67823299831252692</v>
+        <f t="shared" ref="AN24:AO24" si="6">STDEVP(AN3:AN22)</f>
+        <v>1.0246950765959599</v>
       </c>
       <c r="AO24" s="6">
-        <f>STDEVP(AO3:AO22)</f>
-        <v>1.5033296378372905</v>
+        <f t="shared" si="6"/>
+        <v>1.6815171720800239</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
         <f>MIN(B3:B22)</f>
@@ -2323,62 +2795,90 @@
         <f>MIN(U3:U22)</f>
         <v>374</v>
       </c>
+      <c r="V25" s="6">
+        <f>MIN(V3:V22)</f>
+        <v>83</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" ref="W25:Y25" si="7">MIN(W3:W22)</f>
+        <v>184</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="7"/>
+        <v>376</v>
+      </c>
       <c r="Z25" s="3">
-        <f t="shared" ref="Z25:AH25" si="2">MIN(Z3:Z22)</f>
+        <f t="shared" ref="Z25:AH25" si="8">MIN(Z3:Z22)</f>
         <v>83</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
+      <c r="AI25" s="6">
+        <f t="shared" ref="AI25:AM25" si="9">MIN(AI3:AI22)</f>
+        <v>183</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="AK25" s="6">
+        <f t="shared" si="9"/>
+        <v>371</v>
+      </c>
       <c r="AL25" s="3">
-        <f>MIN(AL3:AL22)</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="AM25" s="3">
-        <f>MIN(AM3:AM22)</f>
+      <c r="AM25" s="6">
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="AN25" s="3">
-        <f>MIN(AN3:AN22)</f>
-        <v>193</v>
+        <f t="shared" ref="AN25:AO25" si="10">MIN(AN3:AN22)</f>
+        <v>192</v>
       </c>
       <c r="AO25" s="6">
-        <f>MIN(AO3:AO22)</f>
+        <f t="shared" si="10"/>
         <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
         <f>MAX(B3:B22)</f>
@@ -2412,76 +2912,104 @@
         <f>MAX(U3:U22)</f>
         <v>386</v>
       </c>
+      <c r="V26" s="6">
+        <f>MAX(V3:V22)</f>
+        <v>91</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" ref="W26:Y26" si="11">MAX(W3:W22)</f>
+        <v>194</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" si="11"/>
+        <v>207</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="11"/>
+        <v>396</v>
+      </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26:AH26" si="3">MAX(Z3:Z22)</f>
+        <f t="shared" ref="Z26:AH26" si="12">MAX(Z3:Z22)</f>
         <v>85</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>379</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="AI26" s="6">
+        <f t="shared" ref="AI26:AM26" si="13">MAX(AI3:AI22)</f>
+        <v>188</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="AK26" s="6">
+        <f t="shared" si="13"/>
+        <v>376</v>
       </c>
       <c r="AL26" s="3">
-        <f>MAX(AL3:AL22)</f>
-        <v>85</v>
-      </c>
-      <c r="AM26" s="3">
-        <f>MAX(AM3:AM22)</f>
-        <v>189</v>
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="AM26" s="6">
+        <f t="shared" si="13"/>
+        <v>187</v>
       </c>
       <c r="AN26" s="3">
-        <f>MAX(AN3:AN22)</f>
+        <f t="shared" ref="AN26:AO26" si="14">MAX(AN3:AN22)</f>
         <v>195</v>
       </c>
       <c r="AO26" s="6">
-        <f>MAX(AO3:AO22)</f>
+        <f t="shared" si="14"/>
         <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <f>COUNTIF(B3:B22,83)</f>
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <f>COUNTIF(C3:C22,183)</f>
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f>COUNTIF(D3:D22,193)</f>
+        <f>COUNTIF(D3:D22,192)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <f>COUNTIF(E3:E22,371)</f>
         <v>0</v>
       </c>
@@ -2489,74 +3017,434 @@
         <f>COUNTIF(R3:R22,83)</f>
         <v>5</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="6">
         <f>COUNTIF(S3:S22,183)</f>
         <v>3</v>
       </c>
       <c r="T27" s="3">
-        <f>COUNTIF(T3:T22,193)</f>
+        <f>COUNTIF(T3:T22,192)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="6">
         <f>COUNTIF(U3:U22,371)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="6">
+        <f>COUNTIF(V3:V22,83)</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <f>COUNTIF(W3:W22,183)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <f>COUNTIF(X3:X22,193)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <f>COUNTIF(Y3:Y22,371)</f>
         <v>0</v>
       </c>
       <c r="Z27" s="3">
         <f>COUNTIF(Z3:Z22,83)</f>
         <v>4</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="6">
         <f>COUNTIF(AA3:AA22,183)</f>
         <v>5</v>
       </c>
       <c r="AB27" s="3">
-        <f>COUNTIF(AB3:AB22,193)</f>
+        <f>COUNTIF(AB3:AB22,192)</f>
         <v>1</v>
       </c>
       <c r="AC27" s="6">
         <f>COUNTIF(AC3:AC22,371)</f>
         <v>1</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AD27" s="3">
         <f>COUNTIF(AD3:AD22,83)</f>
         <v>5</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE27" s="6">
         <f>COUNTIF(AE3:AE22,183)</f>
         <v>7</v>
       </c>
       <c r="AF27" s="3">
-        <f>COUNTIF(AF3:AF22,193)</f>
-        <v>1</v>
+        <f>COUNTIF(AF3:AF22,192)</f>
+        <v>2</v>
       </c>
       <c r="AG27" s="6">
         <f>COUNTIF(AG3:AG22,371)</f>
         <v>2</v>
       </c>
-      <c r="AH27" s="6">
+      <c r="AH27" s="3">
         <f>COUNTIF(AH3:AH22,83)</f>
         <v>2</v>
+      </c>
+      <c r="AI27" s="6">
+        <f>COUNTIF(AI3:AI22,183)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f>COUNTIF(AJ3:AJ22,192)</f>
+        <v>3</v>
+      </c>
+      <c r="AK27" s="6">
+        <f>COUNTIF(AK3:AK22,371)</f>
+        <v>5</v>
       </c>
       <c r="AL27" s="3">
         <f>COUNTIF(AL3:AL22,83)</f>
         <v>7</v>
       </c>
-      <c r="AM27" s="3">
+      <c r="AM27" s="6">
         <f>COUNTIF(AM3:AM22,183)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN27" s="3">
-        <f>COUNTIF(AN3:AN22,193)</f>
-        <v>7</v>
+        <f>COUNTIF(AN3:AN22,192)</f>
+        <v>5</v>
       </c>
       <c r="AO27" s="6">
         <f>COUNTIF(AO3:AO22,371)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="Z28" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM53" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM54" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO54" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM55" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM56" s="4">
+        <v>189</v>
+      </c>
+      <c r="AN56" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO56" s="4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM57" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO57" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM58" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO58" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM59" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN59" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO59" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM60" s="4">
+        <v>186</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>195</v>
+      </c>
+      <c r="AO60" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM61" s="4">
+        <v>188</v>
+      </c>
+      <c r="AN61" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO61" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM62" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN62" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO62" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM63" s="4">
+        <v>184</v>
+      </c>
+      <c r="AN63" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO63" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM64" s="4">
+        <v>189</v>
+      </c>
+      <c r="AN64" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO64" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM65" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN65" s="4">
+        <v>195</v>
+      </c>
+      <c r="AO65" s="4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM66" s="4">
+        <v>187</v>
+      </c>
+      <c r="AN66" s="4">
+        <v>195</v>
+      </c>
+      <c r="AO66" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM67" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN67" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO67" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM68" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN68" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO68" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM69" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN69" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO69" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM70" s="4">
+        <v>184</v>
+      </c>
+      <c r="AN70" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO70" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM71" s="4">
+        <v>185</v>
+      </c>
+      <c r="AN71" s="4">
+        <v>193</v>
+      </c>
+      <c r="AO71" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AM72" s="4">
+        <v>183</v>
+      </c>
+      <c r="AN72" s="4">
+        <v>194</v>
+      </c>
+      <c r="AO72" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AN76" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AN77" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AN78" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AN79" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="AN80" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN81" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN82" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN83" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN84" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN85" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN86" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN87" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN88" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN89" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN90" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN91" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN92" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN93" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN94" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="40:40" x14ac:dyDescent="0.15">
+      <c r="AN95" s="9">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2575,9 +3463,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="S27" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -133,7 +133,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收敛不行</t>
+    <t>收敛ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO28" sqref="AO28"/>
+      <selection pane="topRight" activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,13 +3118,13 @@
         <v>27</v>
       </c>
       <c r="AM28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO28" t="s">
         <v>28</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="53" spans="39:41" x14ac:dyDescent="0.15">

--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>MBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>PCCMBO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCCMBO+年龄机制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,7 +125,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收敛不行</t>
+    <t>收敛ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCCMBO+年龄机制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,14 +554,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN28" sqref="AN28"/>
+      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -584,13 +588,13 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
@@ -602,19 +606,19 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
@@ -622,7 +626,7 @@
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -718,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>1</v>
@@ -2527,7 +2531,7 @@
     </row>
     <row r="23" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
         <f>AVERAGE(B3:B22)</f>
@@ -2644,7 +2648,7 @@
     </row>
     <row r="24" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
         <f>STDEVP(B3:B22)</f>
@@ -2761,7 +2765,7 @@
     </row>
     <row r="25" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
         <f>MIN(B3:B22)</f>
@@ -2878,7 +2882,7 @@
     </row>
     <row r="26" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
         <f>MAX(B3:B22)</f>
@@ -2995,7 +2999,7 @@
     </row>
     <row r="27" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
         <f>COUNTIF(B3:B22,83)</f>
@@ -3112,16 +3116,19 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="Z28" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>30</v>
       </c>
       <c r="AL28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="s">
         <v>27</v>
       </c>
-      <c r="AM28" t="s">
-        <v>29</v>
-      </c>
       <c r="AN28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="s">
         <v>28</v>

--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>MBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>PCCMBO+年龄机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -554,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
+      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3120,6 +3124,9 @@
       </c>
       <c r="AH28" t="s">
         <v>30</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>31</v>
       </c>
       <c r="AL28" t="s">
         <v>26</v>

--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>MBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,14 +38,6 @@
   </si>
   <si>
     <t>MBO+改进V阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MBO+减速调整阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MBO+竞争阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -101,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最后记得跑收敛图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,6 +130,22 @@
   </si>
   <si>
     <t>收敛ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变差了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBO+竞争阶段（在originalMBO改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBO+减速调整阶段(在myMBO里面改）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,15 +561,15 @@
   <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -580,49 +584,49 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
@@ -630,7 +634,7 @@
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -717,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>1</v>
@@ -741,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -769,6 +773,28 @@
       <c r="E3" s="4">
         <v>389</v>
       </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>87</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>85</v>
+      </c>
+      <c r="O3" s="4">
+        <v>197</v>
+      </c>
+      <c r="P3" s="4">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>386</v>
+      </c>
       <c r="R3" s="4">
         <v>83</v>
       </c>
@@ -858,6 +884,28 @@
       <c r="E4" s="4">
         <v>385</v>
       </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>85</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>91</v>
+      </c>
+      <c r="O4" s="4">
+        <v>185</v>
+      </c>
+      <c r="P4" s="4">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>377</v>
+      </c>
       <c r="R4" s="4">
         <v>85</v>
       </c>
@@ -947,6 +995,28 @@
       <c r="E5" s="4">
         <v>392</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>85</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>88</v>
+      </c>
+      <c r="O5" s="4">
+        <v>184</v>
+      </c>
+      <c r="P5" s="4">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>386</v>
+      </c>
       <c r="R5" s="4">
         <v>85</v>
       </c>
@@ -1036,6 +1106,28 @@
       <c r="E6" s="4">
         <v>378</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>90</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>91</v>
+      </c>
+      <c r="O6" s="4">
+        <v>186</v>
+      </c>
+      <c r="P6" s="4">
+        <v>197</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>390</v>
+      </c>
       <c r="R6" s="4">
         <v>83</v>
       </c>
@@ -1125,6 +1217,28 @@
       <c r="E7" s="4">
         <v>385</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>83</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>85</v>
+      </c>
+      <c r="O7" s="4">
+        <v>185</v>
+      </c>
+      <c r="P7" s="4">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>385</v>
+      </c>
       <c r="R7" s="4">
         <v>85</v>
       </c>
@@ -1214,6 +1328,28 @@
       <c r="E8" s="4">
         <v>381</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>91</v>
+      </c>
+      <c r="O8" s="4">
+        <v>193</v>
+      </c>
+      <c r="P8" s="4">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>383</v>
+      </c>
       <c r="R8" s="4">
         <v>83</v>
       </c>
@@ -1303,6 +1439,28 @@
       <c r="E9" s="4">
         <v>391</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>89</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>88</v>
+      </c>
+      <c r="O9" s="4">
+        <v>189</v>
+      </c>
+      <c r="P9" s="4">
+        <v>194</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>386</v>
+      </c>
       <c r="R9" s="4">
         <v>83</v>
       </c>
@@ -1392,6 +1550,28 @@
       <c r="E10" s="4">
         <v>385</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>87</v>
+      </c>
+      <c r="O10" s="4">
+        <v>197</v>
+      </c>
+      <c r="P10" s="4">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>386</v>
+      </c>
       <c r="R10" s="4">
         <v>85</v>
       </c>
@@ -1481,6 +1661,28 @@
       <c r="E11" s="4">
         <v>382</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>85</v>
+      </c>
+      <c r="O11" s="4">
+        <v>197</v>
+      </c>
+      <c r="P11" s="4">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>389</v>
+      </c>
       <c r="R11" s="4">
         <v>85</v>
       </c>
@@ -1570,6 +1772,28 @@
       <c r="E12" s="4">
         <v>389</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>85</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>83</v>
+      </c>
+      <c r="O12" s="4">
+        <v>192</v>
+      </c>
+      <c r="P12" s="4">
+        <v>202</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>383</v>
+      </c>
       <c r="R12" s="4">
         <v>85</v>
       </c>
@@ -1659,6 +1883,28 @@
       <c r="E13" s="4">
         <v>392</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>88</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>88</v>
+      </c>
+      <c r="O13" s="4">
+        <v>195</v>
+      </c>
+      <c r="P13" s="4">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>384</v>
+      </c>
       <c r="R13" s="4">
         <v>83</v>
       </c>
@@ -1748,6 +1994,28 @@
       <c r="E14" s="4">
         <v>384</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>85</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>86</v>
+      </c>
+      <c r="O14" s="4">
+        <v>185</v>
+      </c>
+      <c r="P14" s="4">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>379</v>
+      </c>
       <c r="R14" s="4">
         <v>85</v>
       </c>
@@ -1837,6 +2105,28 @@
       <c r="E15" s="4">
         <v>378</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>91</v>
+      </c>
+      <c r="O15" s="4">
+        <v>185</v>
+      </c>
+      <c r="P15" s="4">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>386</v>
+      </c>
       <c r="R15" s="4">
         <v>86</v>
       </c>
@@ -1926,6 +2216,28 @@
       <c r="E16" s="4">
         <v>390</v>
       </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>85</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>85</v>
+      </c>
+      <c r="O16" s="4">
+        <v>198</v>
+      </c>
+      <c r="P16" s="4">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>378</v>
+      </c>
       <c r="R16" s="4">
         <v>86</v>
       </c>
@@ -2015,6 +2327,28 @@
       <c r="E17" s="4">
         <v>383</v>
       </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>83</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>88</v>
+      </c>
+      <c r="O17" s="4">
+        <v>195</v>
+      </c>
+      <c r="P17" s="4">
+        <v>199</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>382</v>
+      </c>
       <c r="R17" s="4">
         <v>85</v>
       </c>
@@ -2104,6 +2438,28 @@
       <c r="E18" s="4">
         <v>385</v>
       </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>87</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>91</v>
+      </c>
+      <c r="O18" s="4">
+        <v>194</v>
+      </c>
+      <c r="P18" s="4">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>387</v>
+      </c>
       <c r="R18" s="4">
         <v>85</v>
       </c>
@@ -2193,6 +2549,28 @@
       <c r="E19" s="4">
         <v>385</v>
       </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>86</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>85</v>
+      </c>
+      <c r="O19" s="4">
+        <v>194</v>
+      </c>
+      <c r="P19" s="4">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>385</v>
+      </c>
       <c r="R19" s="4">
         <v>88</v>
       </c>
@@ -2282,6 +2660,28 @@
       <c r="E20" s="4">
         <v>378</v>
       </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>88</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>85</v>
+      </c>
+      <c r="O20" s="4">
+        <v>189</v>
+      </c>
+      <c r="P20" s="4">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>376</v>
+      </c>
       <c r="R20" s="4">
         <v>85</v>
       </c>
@@ -2371,6 +2771,28 @@
       <c r="E21" s="4">
         <v>390</v>
       </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>87</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>92</v>
+      </c>
+      <c r="O21" s="4">
+        <v>193</v>
+      </c>
+      <c r="P21" s="4">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>382</v>
+      </c>
       <c r="R21" s="4">
         <v>87</v>
       </c>
@@ -2460,6 +2882,28 @@
       <c r="E22" s="4">
         <v>388</v>
       </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>88</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <v>85</v>
+      </c>
+      <c r="O22" s="4">
+        <v>198</v>
+      </c>
+      <c r="P22" s="4">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>382</v>
+      </c>
       <c r="R22" s="4">
         <v>88</v>
       </c>
@@ -2535,7 +2979,7 @@
     </row>
     <row r="23" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3">
         <f>AVERAGE(B3:B22)</f>
@@ -2553,6 +2997,26 @@
         <f>AVERAGE(E3:E22)</f>
         <v>385.5</v>
       </c>
+      <c r="J23" s="6">
+        <f>AVERAGE(J3:J22)</f>
+        <v>86.15</v>
+      </c>
+      <c r="N23" s="6">
+        <f>AVERAGE(N3:N22)</f>
+        <v>87.5</v>
+      </c>
+      <c r="O23" s="6">
+        <f>AVERAGE(O3:O22)</f>
+        <v>191.55</v>
+      </c>
+      <c r="P23" s="6">
+        <f>AVERAGE(P3:P22)</f>
+        <v>199.85</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>AVERAGE(Q3:Q22)</f>
+        <v>383.6</v>
+      </c>
       <c r="R23" s="6">
         <f>AVERAGE(R3:R22)</f>
         <v>85</v>
@@ -2652,7 +3116,7 @@
     </row>
     <row r="24" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <f>STDEVP(B3:B22)</f>
@@ -2670,6 +3134,26 @@
         <f>STDEVP(E3:E22)</f>
         <v>4.4553338819890929</v>
       </c>
+      <c r="J24" s="3">
+        <f>STDEVP(J3:J22)</f>
+        <v>2.0316249653910043</v>
+      </c>
+      <c r="N24" s="3">
+        <f>STDEVP(N3:N22)</f>
+        <v>2.7294688127912363</v>
+      </c>
+      <c r="O24" s="7">
+        <f>STDEVP(O3:O22)</f>
+        <v>4.924175057814252</v>
+      </c>
+      <c r="P24" s="7">
+        <f>STDEVP(P3:P22)</f>
+        <v>3.5252659474144648</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>STDEVP(Q3:Q22)</f>
+        <v>3.7202150475476539</v>
+      </c>
       <c r="R24" s="3">
         <f>STDEVP(R3:R22)</f>
         <v>1.4832396974191326</v>
@@ -2769,7 +3253,7 @@
     </row>
     <row r="25" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
         <f>MIN(B3:B22)</f>
@@ -2787,6 +3271,26 @@
         <f>MIN(E3:E22)</f>
         <v>378</v>
       </c>
+      <c r="J25" s="3">
+        <f>MIN(J3:J22)</f>
+        <v>83</v>
+      </c>
+      <c r="N25" s="3">
+        <f>MIN(N3:N22)</f>
+        <v>83</v>
+      </c>
+      <c r="O25" s="3">
+        <f>MIN(O3:O22)</f>
+        <v>184</v>
+      </c>
+      <c r="P25" s="3">
+        <f>MIN(P3:P22)</f>
+        <v>194</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>MIN(Q3:Q22)</f>
+        <v>376</v>
+      </c>
       <c r="R25" s="3">
         <f>MIN(R3:R22)</f>
         <v>83</v>
@@ -2886,7 +3390,7 @@
     </row>
     <row r="26" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <f>MAX(B3:B22)</f>
@@ -2904,6 +3408,25 @@
         <f>MAX(E3:E22)</f>
         <v>392</v>
       </c>
+      <c r="J26" s="3">
+        <v>89</v>
+      </c>
+      <c r="N26" s="3">
+        <f>MAX(N3:N22)</f>
+        <v>92</v>
+      </c>
+      <c r="O26" s="3">
+        <f>MAX(O3:O22)</f>
+        <v>198</v>
+      </c>
+      <c r="P26" s="3">
+        <f>MAX(P3:P22)</f>
+        <v>208</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>MAX(Q3:Q22)</f>
+        <v>390</v>
+      </c>
       <c r="R26" s="3">
         <f>MAX(R3:R22)</f>
         <v>88</v>
@@ -3003,7 +3526,7 @@
     </row>
     <row r="27" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
         <f>COUNTIF(B3:B22,83)</f>
@@ -3021,6 +3544,26 @@
         <f>COUNTIF(E3:E22,371)</f>
         <v>0</v>
       </c>
+      <c r="J27" s="3">
+        <f>COUNTIF(J3:J22,83)</f>
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <f>COUNTIF(N3:N22,83)</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <f>COUNTIF(O3:O22,183)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f>COUNTIF(P3:P22,192)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>COUNTIF(Q3:Q22,371)</f>
+        <v>0</v>
+      </c>
       <c r="R27" s="3">
         <f>COUNTIF(R3:R22,83)</f>
         <v>5</v>
@@ -3119,29 +3662,191 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>29</v>
+      </c>
       <c r="Z28" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>29</v>
       </c>
       <c r="AH28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="AI28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="39:41" x14ac:dyDescent="0.15">
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="N32" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N33" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N34" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N35" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N36" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N37" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N38" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N39" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N40" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N41" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N42" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N43" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N44" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N45" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N46" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N47" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N48" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="14:41" x14ac:dyDescent="0.15">
+      <c r="N49" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="14:41" x14ac:dyDescent="0.15">
+      <c r="N50" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="14:41" x14ac:dyDescent="0.15">
+      <c r="N51" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM53" s="4">
         <v>185</v>
       </c>
@@ -3152,7 +3857,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="54" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM54" s="4">
         <v>183</v>
       </c>
@@ -3163,7 +3868,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="55" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM55" s="4">
         <v>185</v>
       </c>
@@ -3174,7 +3879,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="56" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM56" s="4">
         <v>189</v>
       </c>
@@ -3185,7 +3890,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="57" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM57" s="4">
         <v>183</v>
       </c>
@@ -3196,7 +3901,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="58" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM58" s="4">
         <v>183</v>
       </c>
@@ -3207,7 +3912,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="59" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM59" s="4">
         <v>183</v>
       </c>
@@ -3218,7 +3923,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="60" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM60" s="4">
         <v>186</v>
       </c>
@@ -3229,7 +3934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="61" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM61" s="4">
         <v>188</v>
       </c>
@@ -3240,7 +3945,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="62" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM62" s="4">
         <v>185</v>
       </c>
@@ -3251,7 +3956,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="63" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM63" s="4">
         <v>184</v>
       </c>
@@ -3262,7 +3967,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="39:41" x14ac:dyDescent="0.15">
+    <row r="64" spans="14:41" x14ac:dyDescent="0.15">
       <c r="AM64" s="4">
         <v>189</v>
       </c>

--- a/毕业论文初稿及各种文档/算法对比汇总.xlsx
+++ b/毕业论文初稿及各种文档/算法对比汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>MBO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>收敛ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变差了？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -562,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I34" sqref="I34"/>
+      <selection pane="topRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,13 +580,13 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -762,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4">
         <v>188</v>
@@ -780,14 +776,20 @@
       <c r="J3" s="4">
         <v>87</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="K3" s="4">
+        <v>183</v>
+      </c>
+      <c r="L3" s="4">
+        <v>206</v>
+      </c>
+      <c r="M3" s="4">
+        <v>380</v>
+      </c>
       <c r="N3" s="4">
         <v>85</v>
       </c>
       <c r="O3" s="4">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P3" s="4">
         <v>199</v>
@@ -891,11 +893,17 @@
       <c r="J4" s="4">
         <v>85</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="K4" s="4">
+        <v>187</v>
+      </c>
+      <c r="L4" s="4">
+        <v>197</v>
+      </c>
+      <c r="M4" s="4">
+        <v>394</v>
+      </c>
       <c r="N4" s="4">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O4" s="4">
         <v>185</v>
@@ -1002,11 +1010,17 @@
       <c r="J5" s="4">
         <v>85</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="K5" s="4">
+        <v>187</v>
+      </c>
+      <c r="L5" s="4">
+        <v>197</v>
+      </c>
+      <c r="M5" s="4">
+        <v>383</v>
+      </c>
       <c r="N5" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="4">
         <v>184</v>
@@ -1111,13 +1125,19 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <v>90</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="K6" s="4">
+        <v>197</v>
+      </c>
+      <c r="L6" s="4">
+        <v>198</v>
+      </c>
+      <c r="M6" s="4">
+        <v>384</v>
+      </c>
       <c r="N6" s="4">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O6" s="4">
         <v>186</v>
@@ -1224,9 +1244,15 @@
       <c r="J7" s="4">
         <v>83</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="K7" s="4">
+        <v>190</v>
+      </c>
+      <c r="L7" s="4">
+        <v>200</v>
+      </c>
+      <c r="M7" s="4">
+        <v>388</v>
+      </c>
       <c r="N7" s="4">
         <v>85</v>
       </c>
@@ -1317,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4">
         <v>192</v>
@@ -1335,14 +1361,20 @@
       <c r="J8" s="4">
         <v>83</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="K8" s="4">
+        <v>187</v>
+      </c>
+      <c r="L8" s="4">
+        <v>206</v>
+      </c>
+      <c r="M8" s="4">
+        <v>377</v>
+      </c>
       <c r="N8" s="4">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O8" s="4">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P8" s="4">
         <v>196</v>
@@ -1444,16 +1476,22 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
-        <v>89</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="K9" s="4">
+        <v>193</v>
+      </c>
+      <c r="L9" s="4">
+        <v>197</v>
+      </c>
+      <c r="M9" s="4">
+        <v>378</v>
+      </c>
       <c r="N9" s="4">
         <v>88</v>
       </c>
       <c r="O9" s="4">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P9" s="4">
         <v>194</v>
@@ -1557,14 +1595,20 @@
       <c r="J10" s="4">
         <v>85</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="4">
+        <v>188</v>
+      </c>
+      <c r="L10" s="4">
+        <v>202</v>
+      </c>
+      <c r="M10" s="4">
+        <v>381</v>
+      </c>
       <c r="N10" s="4">
         <v>87</v>
       </c>
       <c r="O10" s="4">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="P10" s="4">
         <v>201</v>
@@ -1668,14 +1712,20 @@
       <c r="J11" s="4">
         <v>85</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="K11" s="4">
+        <v>185</v>
+      </c>
+      <c r="L11" s="4">
+        <v>199</v>
+      </c>
+      <c r="M11" s="4">
+        <v>377</v>
+      </c>
       <c r="N11" s="4">
         <v>85</v>
       </c>
       <c r="O11" s="4">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="4">
         <v>200</v>
@@ -1777,13 +1827,19 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
-        <v>85</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="K12" s="4">
+        <v>192</v>
+      </c>
+      <c r="L12" s="4">
+        <v>198</v>
+      </c>
+      <c r="M12" s="4">
+        <v>379</v>
+      </c>
       <c r="N12" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O12" s="4">
         <v>192</v>
@@ -1890,14 +1946,20 @@
       <c r="J13" s="4">
         <v>88</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="4">
+        <v>188</v>
+      </c>
+      <c r="L13" s="4">
+        <v>202</v>
+      </c>
+      <c r="M13" s="4">
+        <v>390</v>
+      </c>
       <c r="N13" s="4">
         <v>88</v>
       </c>
       <c r="O13" s="4">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P13" s="4">
         <v>199</v>
@@ -2001,9 +2063,15 @@
       <c r="J14" s="4">
         <v>85</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="K14" s="4">
+        <v>192</v>
+      </c>
+      <c r="L14" s="4">
+        <v>205</v>
+      </c>
+      <c r="M14" s="4">
+        <v>376</v>
+      </c>
       <c r="N14" s="4">
         <v>86</v>
       </c>
@@ -2112,11 +2180,17 @@
       <c r="J15" s="4">
         <v>89</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="K15" s="4">
+        <v>195</v>
+      </c>
+      <c r="L15" s="4">
+        <v>197</v>
+      </c>
+      <c r="M15" s="4">
+        <v>384</v>
+      </c>
       <c r="N15" s="4">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O15" s="4">
         <v>185</v>
@@ -2205,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4">
         <v>188</v>
@@ -2223,9 +2297,15 @@
       <c r="J16" s="4">
         <v>85</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="K16" s="4">
+        <v>190</v>
+      </c>
+      <c r="L16" s="4">
+        <v>196</v>
+      </c>
+      <c r="M16" s="4">
+        <v>378</v>
+      </c>
       <c r="N16" s="4">
         <v>85</v>
       </c>
@@ -2334,9 +2414,15 @@
       <c r="J17" s="4">
         <v>83</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="K17" s="4">
+        <v>183</v>
+      </c>
+      <c r="L17" s="4">
+        <v>202</v>
+      </c>
+      <c r="M17" s="4">
+        <v>383</v>
+      </c>
       <c r="N17" s="4">
         <v>88</v>
       </c>
@@ -2443,16 +2529,22 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
+        <v>85</v>
+      </c>
+      <c r="K18" s="4">
+        <v>196</v>
+      </c>
+      <c r="L18" s="4">
+        <v>199</v>
+      </c>
+      <c r="M18" s="4">
+        <v>383</v>
+      </c>
+      <c r="N18" s="4">
         <v>87</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>91</v>
-      </c>
       <c r="O18" s="4">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P18" s="4">
         <v>204</v>
@@ -2556,14 +2648,20 @@
       <c r="J19" s="4">
         <v>86</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="K19" s="4">
+        <v>187</v>
+      </c>
+      <c r="L19" s="4">
+        <v>198</v>
+      </c>
+      <c r="M19" s="4">
+        <v>380</v>
+      </c>
       <c r="N19" s="4">
         <v>85</v>
       </c>
       <c r="O19" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P19" s="4">
         <v>197</v>
@@ -2665,11 +2763,17 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
-        <v>88</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="K20" s="4">
+        <v>184</v>
+      </c>
+      <c r="L20" s="4">
+        <v>200</v>
+      </c>
+      <c r="M20" s="4">
+        <v>382</v>
+      </c>
       <c r="N20" s="4">
         <v>85</v>
       </c>
@@ -2776,13 +2880,19 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
-        <v>87</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="K21" s="4">
+        <v>185</v>
+      </c>
+      <c r="L21" s="4">
+        <v>202</v>
+      </c>
+      <c r="M21" s="4">
+        <v>388</v>
+      </c>
       <c r="N21" s="4">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O21" s="4">
         <v>193</v>
@@ -2889,17 +2999,23 @@
       <c r="J22" s="4">
         <v>88</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="K22" s="4">
+        <v>188</v>
+      </c>
+      <c r="L22" s="4">
+        <v>198</v>
+      </c>
+      <c r="M22" s="4">
+        <v>380</v>
+      </c>
       <c r="N22" s="4">
         <v>85</v>
       </c>
       <c r="O22" s="4">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P22" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="4">
         <v>382</v>
@@ -2983,7 +3099,7 @@
       </c>
       <c r="B23" s="3">
         <f>AVERAGE(B3:B22)</f>
-        <v>85.25</v>
+        <v>85.5</v>
       </c>
       <c r="C23" s="3">
         <f>AVERAGE(C3:C22)</f>
@@ -2999,118 +3115,130 @@
       </c>
       <c r="J23" s="6">
         <f>AVERAGE(J3:J22)</f>
-        <v>86.15</v>
+        <v>85.35</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" ref="K23:V23" si="0">AVERAGE(K3:K22)</f>
+        <v>188.85</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="0"/>
+        <v>199.95</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>382.25</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(N3:N22)</f>
-        <v>87.5</v>
+        <f t="shared" si="0"/>
+        <v>85.5</v>
       </c>
       <c r="O23" s="6">
-        <f>AVERAGE(O3:O22)</f>
-        <v>191.55</v>
+        <f t="shared" si="0"/>
+        <v>188.85</v>
       </c>
       <c r="P23" s="6">
-        <f>AVERAGE(P3:P22)</f>
-        <v>199.85</v>
+        <f t="shared" si="0"/>
+        <v>199.8</v>
       </c>
       <c r="Q23" s="6">
-        <f>AVERAGE(Q3:Q22)</f>
+        <f t="shared" si="0"/>
         <v>383.6</v>
       </c>
       <c r="R23" s="6">
-        <f>AVERAGE(R3:R22)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S23" s="6">
-        <f>AVERAGE(S3:S22)</f>
+        <f t="shared" si="0"/>
         <v>188.25</v>
       </c>
       <c r="T23" s="6">
-        <f>AVERAGE(T3:T22)</f>
+        <f t="shared" si="0"/>
         <v>197.75</v>
       </c>
       <c r="U23" s="6">
-        <f>AVERAGE(U3:U22)</f>
+        <f t="shared" si="0"/>
         <v>380.35</v>
       </c>
       <c r="V23" s="6">
-        <f>AVERAGE(V3:V22)</f>
+        <f t="shared" si="0"/>
         <v>86.4</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" ref="W23:Y23" si="0">AVERAGE(W3:W22)</f>
+        <f t="shared" ref="W23:Y23" si="1">AVERAGE(W3:W22)</f>
         <v>188.55</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199.55</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382.6</v>
       </c>
       <c r="Z23" s="6">
-        <f t="shared" ref="Z23:AH23" si="1">AVERAGE(Z3:Z22)</f>
+        <f t="shared" ref="Z23:AH23" si="2">AVERAGE(Z3:Z22)</f>
         <v>84.6</v>
       </c>
       <c r="AA23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.15</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.8</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185.15</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.5</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375.5</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.8</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" ref="AI23:AO23" si="2">AVERAGE(AI3:AI22)</f>
+        <f t="shared" ref="AI23:AO23" si="3">AVERAGE(AI3:AI22)</f>
         <v>185.25</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.7</v>
       </c>
       <c r="AK23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>373.4</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.3</v>
       </c>
       <c r="AM23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184.3</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.5</v>
       </c>
       <c r="AO23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
     </row>
@@ -3118,136 +3246,148 @@
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <f>STDEVP(B3:B22)</f>
-        <v>1.699264546796643</v>
-      </c>
-      <c r="C24" s="2">
+        <v>1.7748239349298849</v>
+      </c>
+      <c r="C24" s="3">
         <f>STDEVP(C3:C22)</f>
         <v>4.2340878592679205</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <f>STDEVP(D3:D22)</f>
         <v>2.9474565306378988</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <f>STDEVP(E3:E22)</f>
         <v>4.4553338819890929</v>
       </c>
       <c r="J24" s="3">
         <f>STDEVP(J3:J22)</f>
-        <v>2.0316249653910043</v>
+        <v>1.6815171720800235</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" ref="K24" si="4">STDEVP(K3:K22)</f>
+        <v>4.0776831657204555</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24" si="5">STDEVP(L3:L22)</f>
+        <v>3.024483426967322</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" ref="M24" si="6">STDEVP(M3:M22)</f>
+        <v>4.6354611421087331</v>
       </c>
       <c r="N24" s="3">
-        <f>STDEVP(N3:N22)</f>
-        <v>2.7294688127912363</v>
+        <f t="shared" ref="N24:V24" si="7">STDEVP(N3:N22)</f>
+        <v>1.5329709716755893</v>
       </c>
       <c r="O24" s="7">
-        <f>STDEVP(O3:O22)</f>
-        <v>4.924175057814252</v>
+        <f t="shared" si="7"/>
+        <v>4.0159058753910051</v>
       </c>
       <c r="P24" s="7">
-        <f>STDEVP(P3:P22)</f>
-        <v>3.5252659474144648</v>
+        <f t="shared" si="7"/>
+        <v>3.4146742157927745</v>
       </c>
       <c r="Q24" s="7">
-        <f>STDEVP(Q3:Q22)</f>
+        <f t="shared" si="7"/>
         <v>3.7202150475476539</v>
       </c>
       <c r="R24" s="3">
-        <f>STDEVP(R3:R22)</f>
+        <f t="shared" si="7"/>
         <v>1.4832396974191326</v>
       </c>
       <c r="S24" s="7">
-        <f>STDEVP(S3:S22)</f>
+        <f t="shared" si="7"/>
         <v>3.2691742076555053</v>
       </c>
       <c r="T24" s="7">
-        <f>STDEVP(T3:T22)</f>
+        <f t="shared" si="7"/>
         <v>1.3369741957120937</v>
       </c>
       <c r="U24" s="7">
-        <f>STDEVP(U3:U22)</f>
+        <f t="shared" si="7"/>
         <v>3.4967842369811719</v>
       </c>
       <c r="V24" s="6">
-        <f>STDEVP(V3:V22)</f>
+        <f t="shared" si="7"/>
         <v>2.0099751242241779</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" ref="W24:Y24" si="3">STDEVP(W3:W22)</f>
+        <f t="shared" ref="W24:Y24" si="8">STDEVP(W3:W22)</f>
         <v>2.7106272336859596</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.0736785778607358</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.1224993899462774</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" ref="Z24:AH24" si="4">STDEVP(Z3:Z22)</f>
+        <f t="shared" ref="Z24:AH24" si="9">STDEVP(Z3:Z22)</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="AA24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2863726730347356</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1661903789690602</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2863726730347356</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2449899597988732</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2693611435820435</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.59999999999999987</v>
       </c>
       <c r="AI24" s="6">
-        <f t="shared" ref="AI24:AM24" si="5">STDEVP(AI3:AI22)</f>
+        <f t="shared" ref="AI24:AM24" si="10">STDEVP(AI3:AI22)</f>
         <v>1.7853571071357126</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0049875621120892</v>
       </c>
       <c r="AK24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.9849433241279208</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.95393920141694566</v>
       </c>
       <c r="AM24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3453624047073709</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" ref="AN24:AO24" si="6">STDEVP(AN3:AN22)</f>
+        <f t="shared" ref="AN24:AO24" si="11">STDEVP(AN3:AN22)</f>
         <v>1.0246950765959599</v>
       </c>
       <c r="AO24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.6815171720800239</v>
       </c>
     </row>
@@ -3275,116 +3415,128 @@
         <f>MIN(J3:J22)</f>
         <v>83</v>
       </c>
+      <c r="K25" s="3">
+        <f t="shared" ref="K25" si="12">MIN(K3:K22)</f>
+        <v>183</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25" si="13">MIN(L3:L22)</f>
+        <v>196</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25" si="14">MIN(M3:M22)</f>
+        <v>376</v>
+      </c>
       <c r="N25" s="3">
-        <f>MIN(N3:N22)</f>
+        <f t="shared" ref="N25:V25" si="15">MIN(N3:N22)</f>
         <v>83</v>
       </c>
       <c r="O25" s="3">
-        <f>MIN(O3:O22)</f>
+        <f t="shared" si="15"/>
         <v>184</v>
       </c>
       <c r="P25" s="3">
-        <f>MIN(P3:P22)</f>
+        <f t="shared" si="15"/>
         <v>194</v>
       </c>
       <c r="Q25" s="3">
-        <f>MIN(Q3:Q22)</f>
+        <f t="shared" si="15"/>
         <v>376</v>
       </c>
       <c r="R25" s="3">
-        <f>MIN(R3:R22)</f>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="S25" s="3">
-        <f>MIN(S3:S22)</f>
+        <f t="shared" si="15"/>
         <v>183</v>
       </c>
       <c r="T25" s="3">
-        <f>MIN(T3:T22)</f>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
       <c r="U25" s="3">
-        <f>MIN(U3:U22)</f>
+        <f t="shared" si="15"/>
         <v>374</v>
       </c>
       <c r="V25" s="6">
-        <f>MIN(V3:V22)</f>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" ref="W25:Y25" si="7">MIN(W3:W22)</f>
+        <f t="shared" ref="W25:Y25" si="16">MIN(W3:W22)</f>
         <v>184</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>195</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>376</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" ref="Z25:AH25" si="8">MIN(Z3:Z22)</f>
+        <f t="shared" ref="Z25:AH25" si="17">MIN(Z3:Z22)</f>
         <v>83</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>183</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>192</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>371</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>183</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>192</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>371</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="AI25" s="6">
-        <f t="shared" ref="AI25:AM25" si="9">MIN(AI3:AI22)</f>
+        <f t="shared" ref="AI25:AM25" si="18">MIN(AI3:AI22)</f>
         <v>183</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>192</v>
       </c>
       <c r="AK25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>371</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="AM25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>183</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25:AO25" si="10">MIN(AN3:AN22)</f>
+        <f t="shared" ref="AN25:AO25" si="19">MIN(AN3:AN22)</f>
         <v>192</v>
       </c>
       <c r="AO25" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>371</v>
       </c>
     </row>
@@ -3411,116 +3563,128 @@
       <c r="J26" s="3">
         <v>89</v>
       </c>
+      <c r="K26" s="3">
+        <f t="shared" ref="K26" si="20">MAX(K3:K22)</f>
+        <v>197</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" ref="L26" si="21">MAX(L3:L22)</f>
+        <v>206</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" ref="M26" si="22">MAX(M3:M22)</f>
+        <v>394</v>
+      </c>
       <c r="N26" s="3">
-        <f>MAX(N3:N22)</f>
-        <v>92</v>
+        <f t="shared" ref="N26:V26" si="23">MAX(N3:N22)</f>
+        <v>88</v>
       </c>
       <c r="O26" s="3">
-        <f>MAX(O3:O22)</f>
+        <f t="shared" si="23"/>
         <v>198</v>
       </c>
       <c r="P26" s="3">
-        <f>MAX(P3:P22)</f>
-        <v>208</v>
+        <f t="shared" si="23"/>
+        <v>207</v>
       </c>
       <c r="Q26" s="3">
-        <f>MAX(Q3:Q22)</f>
+        <f t="shared" si="23"/>
         <v>390</v>
       </c>
       <c r="R26" s="3">
-        <f>MAX(R3:R22)</f>
+        <f t="shared" si="23"/>
         <v>88</v>
       </c>
       <c r="S26" s="3">
-        <f>MAX(S3:S22)</f>
+        <f t="shared" si="23"/>
         <v>195</v>
       </c>
       <c r="T26" s="3">
-        <f>MAX(T3:T22)</f>
+        <f t="shared" si="23"/>
         <v>200</v>
       </c>
       <c r="U26" s="3">
-        <f>MAX(U3:U22)</f>
+        <f t="shared" si="23"/>
         <v>386</v>
       </c>
       <c r="V26" s="6">
-        <f>MAX(V3:V22)</f>
+        <f t="shared" si="23"/>
         <v>91</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ref="W26:Y26" si="11">MAX(W3:W22)</f>
+        <f t="shared" ref="W26:Y26" si="24">MAX(W3:W22)</f>
         <v>194</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>207</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>396</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26:AH26" si="12">MAX(Z3:Z22)</f>
+        <f t="shared" ref="Z26:AH26" si="25">MAX(Z3:Z22)</f>
         <v>85</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>190</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>197</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>378</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>190</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>197</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>379</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" ref="AI26:AM26" si="13">MAX(AI3:AI22)</f>
+        <f t="shared" ref="AI26:AM26" si="26">MAX(AI3:AI22)</f>
         <v>188</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>195</v>
       </c>
       <c r="AK26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>376</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
       <c r="AM26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>187</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" ref="AN26:AO26" si="14">MAX(AN3:AN22)</f>
+        <f t="shared" ref="AN26:AO26" si="27">MAX(AN3:AN22)</f>
         <v>195</v>
       </c>
       <c r="AO26" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>376</v>
       </c>
     </row>
@@ -3530,7 +3694,7 @@
       </c>
       <c r="B27" s="3">
         <f>COUNTIF(B3:B22,83)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6">
         <f>COUNTIF(C3:C22,183)</f>
@@ -3546,11 +3710,23 @@
       </c>
       <c r="J27" s="3">
         <f>COUNTIF(J3:J22,83)</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K27" s="6">
+        <f>COUNTIF(K3:K22,183)</f>
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <f>COUNTIF(L3:L22,192)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f>COUNTIF(M3:M22,371)</f>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <f>COUNTIF(N3:N22,83)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" s="6">
         <f>COUNTIF(O3:O22,183)</f>
@@ -3733,17 +3909,6 @@
       </c>
       <c r="AO28" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.15">
